--- a/StructureDefinition-ncpi-family-relationship.xlsx
+++ b/StructureDefinition-ncpi-family-relationship.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-08T19:03:14+00:00</t>
+    <t>2024-08-12T19:06:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-family-relationship.xlsx
+++ b/StructureDefinition-ncpi-family-relationship.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-12T19:06:04+00:00</t>
+    <t>2024-08-20T21:48:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-family-relationship.xlsx
+++ b/StructureDefinition-ncpi-family-relationship.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-20T21:48:07+00:00</t>
+    <t>2024-08-22T16:27:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-family-relationship.xlsx
+++ b/StructureDefinition-ncpi-family-relationship.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-22T16:27:20+00:00</t>
+    <t>2024-09-10T18:56:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-family-relationship.xlsx
+++ b/StructureDefinition-ncpi-family-relationship.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-10T18:56:29+00:00</t>
+    <t>2024-09-12T18:14:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-family-relationship.xlsx
+++ b/StructureDefinition-ncpi-family-relationship.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-12T18:14:21+00:00</t>
+    <t>2024-09-13T20:57:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-family-relationship.xlsx
+++ b/StructureDefinition-ncpi-family-relationship.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-13T20:57:31+00:00</t>
+    <t>2024-09-16T16:04:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-family-relationship.xlsx
+++ b/StructureDefinition-ncpi-family-relationship.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-16T16:04:42+00:00</t>
+    <t>2024-09-18T19:34:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1300,7 +1300,7 @@
     <t>This observation is a group observation (e.g. a battery, a panel of tests, a set of vital sign measurements) that includes the target as a member of the group.</t>
   </si>
   <si>
-    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4B/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
+    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4B/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/R4B/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
   </si>
   <si>
     <t>Relationships established by OBX-4 usage</t>

--- a/StructureDefinition-ncpi-family-relationship.xlsx
+++ b/StructureDefinition-ncpi-family-relationship.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T19:34:29+00:00</t>
+    <t>2024-09-25T18:09:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-family-relationship.xlsx
+++ b/StructureDefinition-ncpi-family-relationship.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-25T18:09:20+00:00</t>
+    <t>2024-09-26T15:36:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-family-relationship.xlsx
+++ b/StructureDefinition-ncpi-family-relationship.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T15:36:52+00:00</t>
+    <t>2024-09-26T17:33:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-family-relationship.xlsx
+++ b/StructureDefinition-ncpi-family-relationship.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T17:33:09+00:00</t>
+    <t>2024-09-26T18:25:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-family-relationship.xlsx
+++ b/StructureDefinition-ncpi-family-relationship.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T18:25:51+00:00</t>
+    <t>2024-09-26T19:08:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-family-relationship.xlsx
+++ b/StructureDefinition-ncpi-family-relationship.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T19:08:25+00:00</t>
+    <t>2024-10-07T20:39:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-family-relationship.xlsx
+++ b/StructureDefinition-ncpi-family-relationship.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-07T20:39:38+00:00</t>
+    <t>2024-10-08T12:54:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-family-relationship.xlsx
+++ b/StructureDefinition-ncpi-family-relationship.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-08T12:54:01+00:00</t>
+    <t>2024-10-08T13:48:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-family-relationship.xlsx
+++ b/StructureDefinition-ncpi-family-relationship.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-08T13:48:24+00:00</t>
+    <t>2024-10-28T19:33:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-family-relationship.xlsx
+++ b/StructureDefinition-ncpi-family-relationship.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-28T19:33:15+00:00</t>
+    <t>2024-10-30T18:30:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-family-relationship.xlsx
+++ b/StructureDefinition-ncpi-family-relationship.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T18:30:14+00:00</t>
+    <t>2024-11-25T15:36:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-family-relationship.xlsx
+++ b/StructureDefinition-ncpi-family-relationship.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-25T15:36:07+00:00</t>
+    <t>2025-01-06T15:08:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-family-relationship.xlsx
+++ b/StructureDefinition-ncpi-family-relationship.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T15:08:44+00:00</t>
+    <t>2025-01-10T20:53:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-family-relationship.xlsx
+++ b/StructureDefinition-ncpi-family-relationship.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-10T20:53:40+00:00</t>
+    <t>2025-01-13T15:02:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-family-relationship.xlsx
+++ b/StructureDefinition-ncpi-family-relationship.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-13T15:02:43+00:00</t>
+    <t>2025-01-13T16:25:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-family-relationship.xlsx
+++ b/StructureDefinition-ncpi-family-relationship.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-13T16:25:54+00:00</t>
+    <t>2025-01-14T18:54:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-family-relationship.xlsx
+++ b/StructureDefinition-ncpi-family-relationship.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-14T18:54:07+00:00</t>
+    <t>2025-01-27T23:56:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-family-relationship.xlsx
+++ b/StructureDefinition-ncpi-family-relationship.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-27T23:56:01+00:00</t>
+    <t>2025-01-28T00:06:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-family-relationship.xlsx
+++ b/StructureDefinition-ncpi-family-relationship.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-28T00:06:22+00:00</t>
+    <t>2025-02-07T15:45:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-family-relationship.xlsx
+++ b/StructureDefinition-ncpi-family-relationship.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-07T15:45:47+00:00</t>
+    <t>2025-03-11T16:55:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-family-relationship.xlsx
+++ b/StructureDefinition-ncpi-family-relationship.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-11T16:55:01+00:00</t>
+    <t>2025-03-24T15:08:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-family-relationship.xlsx
+++ b/StructureDefinition-ncpi-family-relationship.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-24T15:08:47+00:00</t>
+    <t>2025-05-11T16:39:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1732,17 +1732,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="38.30078125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="38.30078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="111.11328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="95.26171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1751,28 +1751,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="63.70703125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="50.70703125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="54.6171875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="43.47265625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="35.16796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="247.40625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="212.10546875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="107.01953125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="42.34375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="91.75" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="36.3046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/StructureDefinition-ncpi-family-relationship.xlsx
+++ b/StructureDefinition-ncpi-family-relationship.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-11T16:39:55+00:00</t>
+    <t>2025-05-16T18:22:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-family-relationship.xlsx
+++ b/StructureDefinition-ncpi-family-relationship.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-16T18:22:27+00:00</t>
+    <t>2025-05-21T14:15:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-family-relationship.xlsx
+++ b/StructureDefinition-ncpi-family-relationship.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T14:15:46+00:00</t>
+    <t>2025-05-21T14:22:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-family-relationship.xlsx
+++ b/StructureDefinition-ncpi-family-relationship.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1995" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1995" uniqueCount="446">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T14:22:51+00:00</t>
+    <t>2025-06-13T15:45:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -90,7 +90,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>4.3.0</t>
+    <t>4.0.1</t>
   </si>
   <si>
     <t>Kind</t>
@@ -273,7 +273,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where(((id.exists() and ('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url)))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(uri) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -286,9 +286,6 @@
   </si>
   <si>
     <t>Observation[classCode=OBS, moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>clinical.diagnostics</t>
   </si>
   <si>
     <t>Observation.id</t>
@@ -374,7 +371,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>IETF language tag</t>
+    <t>A human language.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -432,10 +429,6 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
-    <t xml:space="preserve">dom-r4b:Containing new R4B resources within R4 resources may cause interoperability issues if instances are shared with R4 systems {($this is Citation or $this is Evidence or $this is EvidenceReport or $this is EvidenceVariable or $this is MedicinalProductDefinition or $this is PackagedProductDefinition or $this is AdministrableProductDefinition or $this is Ingredient or $this is ClinicalUseDefinition or $this is RegulatedAuthorization or $this is SubstanceDefinition or $this is SubscriptionStatus or $this is SubscriptionTopic) implies (%resource is Citation or %resource is Evidence or %resource is EvidenceReport or %resource is EvidenceVariable or %resource is MedicinalProductDefinition or %resource is PackagedProductDefinition or %resource is AdministrableProductDefinition or %resource is Ingredient or %resource is ClinicalUseDefinition or %resource is RegulatedAuthorization or %resource is SubstanceDefinition or %resource is SubscriptionStatus or %resource is SubscriptionTopic)}
-</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -476,7 +469,7 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4B/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -556,7 +549,7 @@
     <t>A larger event of which this particular Observation is a component or step.  For example,  an observation as part of a procedure.</t>
   </si>
   <si>
-    <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](http://hl7.org/fhir/R4B/observation.html#obsgrouping) below for guidance on referencing another Observation.</t>
+    <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below for guidance on referencing another Observation.</t>
   </si>
   <si>
     <t>Event.partOf</t>
@@ -589,7 +582,7 @@
     <t>Codes providing the status of an observation.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-status|4.3.0</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
   </si>
   <si>
     <t>Event.status</t>
@@ -721,7 +714,7 @@
     <t>The actual focus of an observation when it is not the patient of record representing something or someone associated with the patient such as a spouse, parent, fetus, or donor. For example, fetus observations in a mother's record.  The focus of an observation could also be an existing condition,  an intervention, the subject's diet,  another observation of the subject,  or a body structure such as tumor or implanted device.   An example use case would be using the Observation resource to capture whether the mother is trained to change her child's tracheostomy tube. In this example, the child is the patient of record and the mother is the focus.</t>
   </si>
   <si>
-    <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension [focusCode](http://hl7.org/fhir/R4B/extension-observation-focuscode.html).</t>
+    <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension [focusCode](http://hl7.org/fhir/R4/extension-observation-focuscode.html).</t>
   </si>
   <si>
     <t>participation[typeCode=SBJ]</t>
@@ -779,7 +772,7 @@
     <t>The time or time-period the observed value is asserted as being true. For biological subjects - e.g. human patients - this is usually called the "physiologically relevant time". This is usually either the time of the procedure or of specimen collection, but very often the source of the date/time is not known, only the date/time itself.</t>
   </si>
   <si>
-    <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](http://hl7.org/fhir/R4B/datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.</t>
+    <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](http://hl7.org/fhir/R4/datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.</t>
   </si>
   <si>
     <t>Knowing when an observation was deemed true is important to its relevance as well as determining trends.</t>
@@ -810,7 +803,7 @@
     <t>The date and time this version of the observation was made available to providers, typically after the results have been reviewed and verified.</t>
   </si>
   <si>
-    <t>For Observations that don’t require review and verification, it may be the same as the [`lastUpdated` ](http://hl7.org/fhir/R4B/resource-definitions.html#Meta.lastUpdated) time of the resource itself.  For Observations that do require review and verification for certain updates, it might not be the same as the `lastUpdated` time of the resource itself due to a non-clinically significant update that doesn’t require the new version to be reviewed and verified again.</t>
+    <t>For Observations that don’t require review and verification, it may be the same as the [`lastUpdated` ](http://hl7.org/fhir/R4/resource-definitions.html#Meta.lastUpdated) time of the resource itself.  For Observations that do require review and verification for certain updates, it might not be the same as the `lastUpdated` time of the resource itself due to a non-clinically significant update that doesn’t require the new version to be reviewed and verified again.</t>
   </si>
   <si>
     <t>OBR.22 (or MSH.7), or perhaps OBX-19 (depends on who observation made)</t>
@@ -863,7 +856,7 @@
     <t>The information determined as a result of making the observation, if the information has a simple value.</t>
   </si>
   <si>
-    <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4B/observation.html#notes) below.</t>
+    <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
   </si>
   <si>
     <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
@@ -986,13 +979,13 @@
   </si>
   <si>
     <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.   
-If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](http://hl7.org/fhir/R4B/extension-bodysite.html).</t>
+If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).</t>
   </si>
   <si>
     <t>example</t>
   </si>
   <si>
-    <t>SNOMED CT Body site concepts</t>
+    <t>Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/body-site</t>
@@ -1112,7 +1105,7 @@
     <t>Knowing what values are considered "normal" can help evaluate the significance of a particular result. Need to be able to provide multiple reference ranges for different contexts.</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children unless an empty Parameters resource {hasValue() or (children().count() &gt; id.count()) or $this is Parameters}
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 obs-3:Must have at least a low or a high or text {low.exists() or high.exists() or text.exists()}</t>
   </si>
   <si>
@@ -1300,7 +1293,7 @@
     <t>This observation is a group observation (e.g. a battery, a panel of tests, a set of vital sign measurements) that includes the target as a member of the group.</t>
   </si>
   <si>
-    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4B/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/R4B/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
+    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/R4/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
   </si>
   <si>
     <t>Relationships established by OBX-4 usage</t>
@@ -1322,7 +1315,7 @@
     <t>The target resource that represents a measurement from which this observation value is derived. For example, a calculated anion gap or a fetal measurement based on an ultrasound image.</t>
   </si>
   <si>
-    <t>All the reference choices that are listed in this element can represent clinical observations and other measurements that may be the source for a derived value.  The most common reference will be another Observation.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4B/observation.html#obsgrouping) below.</t>
+    <t>All the reference choices that are listed in this element can represent clinical observations and other measurements that may be the source for a derived value.  The most common reference will be another Observation.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.</t>
   </si>
   <si>
     <t>.targetObservation</t>
@@ -1337,14 +1330,10 @@
     <t>Some observations have multiple component observations.  These component observations are expressed as separate code value pairs that share the same attributes.  Examples include systolic and diastolic component observations for blood pressure measurement and multiple component observations for genetics observations.</t>
   </si>
   <si>
-    <t>For a discussion on the ways Observations can be assembled in groups together see [Notes](http://hl7.org/fhir/R4B/observation.html#notes) below.</t>
+    <t>For a discussion on the ways Observations can be assembled in groups together see [Notes](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
   </si>
   <si>
     <t>Component observations share the same attributes in the Observation resource as the primary observation and are always treated a part of a single observation (they are not separable).   However, the reference range for the primary observation value is not inherited by the component values and is required when appropriate for each component observation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children unless an empty Parameters resource {hasValue() or (children().count() &gt; id.count()) or $this is Parameters}
-</t>
   </si>
   <si>
     <t>containment by OBX-4?</t>
@@ -1390,7 +1379,7 @@
     <t>Actual component result</t>
   </si>
   <si>
-    <t>Used when observation has a set of component observations. An observation may have both a value (e.g. an  Apgar score)  and component observations (the observations from which the Apgar score was derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4B/observation.html#notes) below.</t>
+    <t>Used when observation has a set of component observations. An observation may have both a value (e.g. an  Apgar score)  and component observations (the observations from which the Apgar score was derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
   </si>
   <si>
     <t>363714003 |Interprets| &lt; 441742003 |Evaluation finding|</t>
@@ -2017,7 +2006,7 @@
         <v>89</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="AP2" t="s" s="2">
         <v>20</v>
@@ -2025,10 +2014,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2039,28 +2028,28 @@
         <v>79</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="M3" t="s" s="2">
+      <c r="N3" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2110,13 +2099,13 @@
         <v>20</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>20</v>
@@ -2145,10 +2134,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2159,25 +2148,25 @@
         <v>79</v>
       </c>
       <c r="G4" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H4" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J4" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="K4" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2228,19 +2217,19 @@
         <v>20</v>
       </c>
       <c r="AF4" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI4" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ4" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>20</v>
@@ -2263,10 +2252,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2277,28 +2266,28 @@
         <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H5" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I5" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="J5" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2348,19 +2337,19 @@
         <v>20</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>20</v>
@@ -2383,10 +2372,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2397,7 +2386,7 @@
         <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>20</v>
@@ -2409,16 +2398,16 @@
         <v>20</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2444,43 +2433,43 @@
         <v>20</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="Y6" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="Z6" t="s" s="2">
+      <c r="AA6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="AA6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>119</v>
-      </c>
       <c r="AG6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>20</v>
@@ -2503,21 +2492,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>20</v>
@@ -2529,16 +2518,16 @@
         <v>20</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2588,31 +2577,31 @@
         <v>20</v>
       </c>
       <c r="AF7" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL7" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM7" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN7" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM7" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN7" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="AO7" t="s" s="2">
         <v>20</v>
@@ -2623,14 +2612,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2649,16 +2638,16 @@
         <v>20</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2708,7 +2697,7 @@
         <v>20</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>79</v>
@@ -2720,7 +2709,7 @@
         <v>20</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>20</v>
@@ -2732,7 +2721,7 @@
         <v>20</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AO8" t="s" s="2">
         <v>20</v>
@@ -2743,14 +2732,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2769,16 +2758,16 @@
         <v>20</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2828,7 +2817,7 @@
         <v>20</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>79</v>
@@ -2840,7 +2829,7 @@
         <v>20</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>20</v>
@@ -2852,7 +2841,7 @@
         <v>20</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AO9" t="s" s="2">
         <v>20</v>
@@ -2863,14 +2852,14 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2883,25 +2872,25 @@
         <v>20</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>20</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="O10" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>20</v>
@@ -2950,7 +2939,7 @@
         <v>20</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -2962,7 +2951,7 @@
         <v>20</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>20</v>
@@ -2974,7 +2963,7 @@
         <v>20</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AO10" t="s" s="2">
         <v>20</v>
@@ -2985,10 +2974,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3008,20 +2997,20 @@
         <v>20</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>20</v>
@@ -3070,7 +3059,7 @@
         <v>20</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
@@ -3082,22 +3071,22 @@
         <v>20</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM11" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AN11" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="AL11" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM11" t="s" s="2">
+      <c r="AO11" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="AO11" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="AP11" t="s" s="2">
         <v>20</v>
@@ -3105,14 +3094,14 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3128,20 +3117,20 @@
         <v>20</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>20</v>
@@ -3190,7 +3179,7 @@
         <v>20</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -3202,19 +3191,19 @@
         <v>20</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM12" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AN12" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>20</v>
@@ -3225,14 +3214,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3248,19 +3237,19 @@
         <v>20</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3310,7 +3299,7 @@
         <v>20</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
@@ -3322,19 +3311,19 @@
         <v>20</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM13" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AN13" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>20</v>
@@ -3345,10 +3334,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3356,34 +3345,34 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I14" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G14" t="s" s="2">
+      <c r="J14" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="J14" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="K14" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="N14" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="O14" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>20</v>
@@ -3408,58 +3397,58 @@
         <v>20</v>
       </c>
       <c r="X14" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="Z14" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="AA14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="Z14" t="s" s="2">
+      <c r="AL14" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="AA14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AN14" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="AM14" t="s" s="2">
+      <c r="AO14" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="AO14" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>20</v>
@@ -3467,10 +3456,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3493,19 +3482,19 @@
         <v>20</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="O15" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>20</v>
@@ -3530,13 +3519,13 @@
         <v>20</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>20</v>
@@ -3554,7 +3543,7 @@
         <v>20</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -3566,7 +3555,7 @@
         <v>20</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>20</v>
@@ -3578,10 +3567,10 @@
         <v>20</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>20</v>
@@ -3589,45 +3578,45 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J16" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G16" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J16" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="K16" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="N16" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>20</v>
@@ -3652,67 +3641,67 @@
         <v>20</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Y16" s="2"/>
       <c r="Z16" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="AA16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AM16" t="s" s="2">
+      <c r="AO16" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AN16" t="s" s="2">
+      <c r="AP16" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="AP16" t="s" s="2">
-        <v>213</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3720,34 +3709,34 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J17" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G17" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J17" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="K17" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="O17" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>20</v>
@@ -3796,34 +3785,34 @@
         <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM17" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AN17" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AL17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AO17" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="AP17" t="s" s="2">
         <v>20</v>
@@ -3831,10 +3820,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3842,31 +3831,31 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J18" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G18" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J18" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="K18" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="N18" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3916,7 +3905,7 @@
         <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -3928,7 +3917,7 @@
         <v>20</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>20</v>
@@ -3937,13 +3926,13 @@
         <v>20</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AP18" t="s" s="2">
         <v>20</v>
@@ -3951,45 +3940,45 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J19" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J19" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="K19" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>20</v>
@@ -4038,34 +4027,34 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="AL19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AO19" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="AO19" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>20</v>
@@ -4073,45 +4062,45 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J20" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J20" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="K20" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="O20" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>20</v>
@@ -4160,34 +4149,34 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM20" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AN20" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="AL20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM20" t="s" s="2">
+      <c r="AO20" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="AO20" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>20</v>
@@ -4195,10 +4184,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4209,28 +4198,28 @@
         <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J21" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J21" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="K21" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4280,19 +4269,19 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>20</v>
@@ -4301,13 +4290,13 @@
         <v>20</v>
       </c>
       <c r="AM21" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AN21" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AO21" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="AO21" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>20</v>
@@ -4315,10 +4304,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4338,20 +4327,20 @@
         <v>20</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>20</v>
@@ -4400,7 +4389,7 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4412,22 +4401,22 @@
         <v>20</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM22" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AN22" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="AL22" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AO22" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="AO22" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>20</v>
@@ -4435,10 +4424,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4449,31 +4438,31 @@
         <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J23" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H23" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J23" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="K23" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="O23" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>20</v>
@@ -4522,45 +4511,45 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI23" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="AJ23" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AO23" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP23" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="AO23" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP23" t="s" s="2">
-        <v>278</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4571,7 +4560,7 @@
         <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>20</v>
@@ -4583,19 +4572,19 @@
         <v>20</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="N24" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>20</v>
@@ -4620,55 +4609,55 @@
         <v>20</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Y24" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI24" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="Z24" t="s" s="2">
+      <c r="AJ24" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM24" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>20</v>
@@ -4679,14 +4668,14 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4705,19 +4694,19 @@
         <v>20</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="N25" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>20</v>
@@ -4742,13 +4731,13 @@
         <v>20</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>20</v>
@@ -4766,7 +4755,7 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -4778,33 +4767,33 @@
         <v>20</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL25" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AM25" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AO25" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP25" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP25" t="s" s="2">
-        <v>299</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4827,19 +4816,19 @@
         <v>20</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>20</v>
@@ -4888,7 +4877,7 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -4900,7 +4889,7 @@
         <v>20</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>20</v>
@@ -4909,10 +4898,10 @@
         <v>20</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>20</v>
@@ -4923,10 +4912,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4937,7 +4926,7 @@
         <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>20</v>
@@ -4949,16 +4938,16 @@
         <v>20</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="N27" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4984,69 +4973,69 @@
         <v>20</v>
       </c>
       <c r="X27" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="Z27" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="Y27" t="s" s="2">
+      <c r="AA27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="Z27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="AA27" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AN27" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AO27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP27" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP27" t="s" s="2">
-        <v>318</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5057,7 +5046,7 @@
         <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>20</v>
@@ -5069,19 +5058,19 @@
         <v>20</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="N28" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="O28" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>20</v>
@@ -5106,55 +5095,55 @@
         <v>20</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="Y28" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="Z28" t="s" s="2">
+      <c r="AN28" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>20</v>
@@ -5165,10 +5154,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5179,7 +5168,7 @@
         <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>20</v>
@@ -5191,16 +5180,16 @@
         <v>20</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5250,45 +5239,45 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL29" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AO29" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP29" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP29" t="s" s="2">
-        <v>336</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5299,7 +5288,7 @@
         <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>20</v>
@@ -5311,16 +5300,16 @@
         <v>20</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5370,45 +5359,45 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL30" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="AM30" t="s" s="2">
+      <c r="AO30" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP30" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="AO30" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP30" t="s" s="2">
-        <v>345</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5431,19 +5420,19 @@
         <v>20</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="O31" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>20</v>
@@ -5492,7 +5481,7 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5504,19 +5493,19 @@
         <v>20</v>
       </c>
       <c r="AJ31" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>20</v>
@@ -5527,10 +5516,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5541,7 +5530,7 @@
         <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>20</v>
@@ -5553,13 +5542,13 @@
         <v>20</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5610,13 +5599,13 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>20</v>
@@ -5634,7 +5623,7 @@
         <v>20</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>20</v>
@@ -5645,14 +5634,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5671,16 +5660,16 @@
         <v>20</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="N33" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5730,7 +5719,7 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5742,7 +5731,7 @@
         <v>20</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>20</v>
@@ -5754,7 +5743,7 @@
         <v>20</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>20</v>
@@ -5765,14 +5754,14 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5785,25 +5774,25 @@
         <v>20</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>20</v>
@@ -5852,7 +5841,7 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5864,7 +5853,7 @@
         <v>20</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>20</v>
@@ -5876,7 +5865,7 @@
         <v>20</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>20</v>
@@ -5887,10 +5876,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5901,7 +5890,7 @@
         <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>20</v>
@@ -5913,13 +5902,13 @@
         <v>20</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5970,31 +5959,31 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI35" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AN35" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>20</v>
@@ -6005,10 +5994,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6019,7 +6008,7 @@
         <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>20</v>
@@ -6031,13 +6020,13 @@
         <v>20</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6088,19 +6077,19 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>20</v>
@@ -6109,10 +6098,10 @@
         <v>20</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>20</v>
@@ -6123,10 +6112,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6137,7 +6126,7 @@
         <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>20</v>
@@ -6149,19 +6138,19 @@
         <v>20</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="N37" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="O37" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>20</v>
@@ -6186,55 +6175,55 @@
         <v>20</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Y37" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="Z37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="AA37" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>388</v>
-      </c>
       <c r="AN37" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>20</v>
@@ -6245,10 +6234,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6271,19 +6260,19 @@
         <v>20</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="N38" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>20</v>
@@ -6308,13 +6297,13 @@
         <v>20</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>20</v>
@@ -6332,7 +6321,7 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6344,19 +6333,19 @@
         <v>20</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>20</v>
@@ -6367,10 +6356,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6381,7 +6370,7 @@
         <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>20</v>
@@ -6393,17 +6382,17 @@
         <v>20</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>20</v>
@@ -6452,19 +6441,19 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>20</v>
@@ -6476,7 +6465,7 @@
         <v>20</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>20</v>
@@ -6487,10 +6476,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6501,7 +6490,7 @@
         <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>20</v>
@@ -6513,13 +6502,13 @@
         <v>20</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6570,19 +6559,19 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>20</v>
@@ -6591,10 +6580,10 @@
         <v>20</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>20</v>
@@ -6605,10 +6594,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6628,19 +6617,19 @@
         <v>20</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6690,7 +6679,7 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6702,7 +6691,7 @@
         <v>20</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>20</v>
@@ -6711,10 +6700,10 @@
         <v>20</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>20</v>
@@ -6725,10 +6714,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6748,19 +6737,19 @@
         <v>20</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6810,7 +6799,7 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6822,7 +6811,7 @@
         <v>20</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>20</v>
@@ -6831,10 +6820,10 @@
         <v>20</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>20</v>
@@ -6845,10 +6834,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6868,22 +6857,22 @@
         <v>20</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="N43" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="O43" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>20</v>
@@ -6932,7 +6921,7 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -6944,7 +6933,7 @@
         <v>20</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>424</v>
+        <v>103</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>20</v>
@@ -6953,10 +6942,10 @@
         <v>20</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>20</v>
@@ -6967,10 +6956,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6981,7 +6970,7 @@
         <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>20</v>
@@ -6993,13 +6982,13 @@
         <v>20</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7050,13 +7039,13 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>20</v>
@@ -7074,7 +7063,7 @@
         <v>20</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>20</v>
@@ -7085,14 +7074,14 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7111,16 +7100,16 @@
         <v>20</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="N45" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7170,7 +7159,7 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7182,7 +7171,7 @@
         <v>20</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>20</v>
@@ -7194,7 +7183,7 @@
         <v>20</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>20</v>
@@ -7205,14 +7194,14 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7225,25 +7214,25 @@
         <v>20</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>20</v>
@@ -7292,7 +7281,7 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -7304,7 +7293,7 @@
         <v>20</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>20</v>
@@ -7316,7 +7305,7 @@
         <v>20</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>20</v>
@@ -7327,10 +7316,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7338,34 +7327,34 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J47" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G47" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J47" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="K47" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>20</v>
@@ -7390,13 +7379,13 @@
         <v>20</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>20</v>
@@ -7414,34 +7403,34 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="AM47" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AO47" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="AO47" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="AP47" t="s" s="2">
         <v>20</v>
@@ -7449,10 +7438,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7463,31 +7452,31 @@
         <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J48" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="H48" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J48" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="K48" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="L48" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="O48" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>20</v>
@@ -7536,45 +7525,45 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL48" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="AG48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>440</v>
-      </c>
       <c r="AM48" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AO48" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP48" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="AO48" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP48" t="s" s="2">
-        <v>278</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7585,7 +7574,7 @@
         <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>20</v>
@@ -7597,19 +7586,19 @@
         <v>20</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>20</v>
@@ -7634,55 +7623,55 @@
         <v>20</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Y49" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI49" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="Z49" t="s" s="2">
+      <c r="AJ49" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AN49" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>20</v>
@@ -7693,14 +7682,14 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7719,19 +7708,19 @@
         <v>20</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="N50" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="O50" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>20</v>
@@ -7756,13 +7745,13 @@
         <v>20</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>20</v>
@@ -7780,7 +7769,7 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7792,33 +7781,33 @@
         <v>20</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL50" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AN50" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="AM50" t="s" s="2">
+      <c r="AO50" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP50" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP50" t="s" s="2">
-        <v>299</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7844,16 +7833,16 @@
         <v>81</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>20</v>
@@ -7902,7 +7891,7 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -7914,7 +7903,7 @@
         <v>20</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>20</v>
@@ -7923,10 +7912,10 @@
         <v>20</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>20</v>

--- a/StructureDefinition-ncpi-family-relationship.xlsx
+++ b/StructureDefinition-ncpi-family-relationship.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-13T15:45:04+00:00</t>
+    <t>2025-06-25T19:44:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-family-relationship.xlsx
+++ b/StructureDefinition-ncpi-family-relationship.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-25T19:44:14+00:00</t>
+    <t>2025-06-27T14:40:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-family-relationship.xlsx
+++ b/StructureDefinition-ncpi-family-relationship.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-27T14:40:47+00:00</t>
+    <t>2025-07-21T16:00:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-family-relationship.xlsx
+++ b/StructureDefinition-ncpi-family-relationship.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T16:00:02+00:00</t>
+    <t>2025-07-21T16:06:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-family-relationship.xlsx
+++ b/StructureDefinition-ncpi-family-relationship.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T16:06:27+00:00</t>
+    <t>2025-07-22T19:44:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-family-relationship.xlsx
+++ b/StructureDefinition-ncpi-family-relationship.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-22T19:44:39+00:00</t>
+    <t>2025-08-11T13:46:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-family-relationship.xlsx
+++ b/StructureDefinition-ncpi-family-relationship.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T13:46:00+00:00</t>
+    <t>2025-08-11T15:03:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-family-relationship.xlsx
+++ b/StructureDefinition-ncpi-family-relationship.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T15:03:48+00:00</t>
+    <t>2025-08-12T16:35:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-family-relationship.xlsx
+++ b/StructureDefinition-ncpi-family-relationship.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T16:35:35+00:00</t>
+    <t>2025-08-12T16:41:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-family-relationship.xlsx
+++ b/StructureDefinition-ncpi-family-relationship.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T16:41:46+00:00</t>
+    <t>2025-08-12T16:58:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-family-relationship.xlsx
+++ b/StructureDefinition-ncpi-family-relationship.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T16:58:49+00:00</t>
+    <t>2025-08-12T17:45:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-family-relationship.xlsx
+++ b/StructureDefinition-ncpi-family-relationship.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T17:45:57+00:00</t>
+    <t>2025-08-12T18:02:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ncpi-family-relationship.xlsx
+++ b/StructureDefinition-ncpi-family-relationship.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T18:02:45+00:00</t>
+    <t>2025-08-26T23:53:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
